--- a/Data/Processed/Lithraea_germination.xlsx
+++ b/Data/Processed/Lithraea_germination.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da209bad219a65be/Documentos/Brasil/mestrado/Experimento/Master-thesis_Chapter-2_Allelopathy-study/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9676663480EA8FC35FE499891477CDA54CF16684" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04916B86-C625-489C-9545-F5D01183C345}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_9676663480EA8FC35FE499891477CDA54CF16684" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92D4D81E-6038-4F32-A23E-4129F5A0C0E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>bandeja</t>
   </si>
@@ -44,6 +57,9 @@
   </si>
   <si>
     <t>agua</t>
+  </si>
+  <si>
+    <t>odds</t>
   </si>
 </sst>
 </file>
@@ -102,6 +118,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -305,15 +325,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -326,8 +346,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -340,8 +363,12 @@
       <c r="D2" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -354,8 +381,12 @@
       <c r="D3" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="0">C3/D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -368,8 +399,12 @@
       <c r="D4" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -382,8 +417,12 @@
       <c r="D5" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -396,8 +435,12 @@
       <c r="D6" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -410,8 +453,12 @@
       <c r="D7" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -424,8 +471,12 @@
       <c r="D8" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -438,8 +489,12 @@
       <c r="D9" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -452,8 +507,12 @@
       <c r="D10" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -466,8 +525,12 @@
       <c r="D11" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -480,8 +543,12 @@
       <c r="D12" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -494,8 +561,12 @@
       <c r="D13" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -508,8 +579,12 @@
       <c r="D14" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -522,8 +597,12 @@
       <c r="D15" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -536,8 +615,12 @@
       <c r="D16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -550,8 +633,12 @@
       <c r="D17" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -564,8 +651,12 @@
       <c r="D18" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -578,8 +669,12 @@
       <c r="D19" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -592,8 +687,12 @@
       <c r="D20" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -606,8 +705,12 @@
       <c r="D21" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -620,8 +723,12 @@
       <c r="D22" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -634,8 +741,12 @@
       <c r="D23" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -648,8 +759,12 @@
       <c r="D24" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -662,8 +777,12 @@
       <c r="D25" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -676,8 +795,12 @@
       <c r="D26" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -690,8 +813,12 @@
       <c r="D27" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -704,8 +831,12 @@
       <c r="D28" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -718,8 +849,12 @@
       <c r="D29" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -732,8 +867,12 @@
       <c r="D30" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -746,8 +885,12 @@
       <c r="D31" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -760,8 +903,12 @@
       <c r="D32" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -774,8 +921,12 @@
       <c r="D33" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -788,8 +939,12 @@
       <c r="D34" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -802,8 +957,12 @@
       <c r="D35" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -816,8 +975,12 @@
       <c r="D36" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>9</v>
       </c>
@@ -830,8 +993,12 @@
       <c r="D37" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -844,8 +1011,12 @@
       <c r="D38" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -858,8 +1029,12 @@
       <c r="D39" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -872,8 +1047,12 @@
       <c r="D40" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -885,6 +1064,10 @@
       </c>
       <c r="D41" s="1">
         <v>13</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processed/Lithraea_germination.xlsx
+++ b/Data/Processed/Lithraea_germination.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da209bad219a65be/Documentos/Brasil/mestrado/Experimento/Master-thesis_Chapter-2_Allelopathy-study/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_9676663480EA8FC35FE499891477CDA54CF16684" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92D4D81E-6038-4F32-A23E-4129F5A0C0E3}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_9676663480EA8FC35FE499891477CDA54CF16684" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FBC75B4-A699-43C4-9F40-BC2071CAB997}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Página1!$A$1:$E$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -322,13 +325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C41" sqref="C5:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -350,7 +353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -368,7 +371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -386,7 +389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -422,7 +425,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -440,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -458,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -494,7 +497,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -512,7 +515,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -530,7 +533,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -566,7 +569,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -584,7 +587,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -638,7 +641,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -656,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -674,7 +677,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -728,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -800,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -854,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -890,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -944,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -962,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -1071,6 +1074,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E41" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="agua"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>